--- a/src/main/resources/poi/report_sales_summary.xlsx
+++ b/src/main/resources/poi/report_sales_summary.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangyupeng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39E74CF8-F648-4A29-97FD-B8FAC5657231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E2CC50-DBCC-4289-9499-9B3B41636F01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -496,7 +496,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/poi/report_sales_summary.xlsx
+++ b/src/main/resources/poi/report_sales_summary.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E2CC50-DBCC-4289-9499-9B3B41636F01}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9DEE32-4C40-4E89-8A92-7ACF88811E85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -175,7 +175,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -183,6 +182,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -496,7 +498,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -509,24 +511,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="1" t="s">
@@ -535,10 +537,10 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
@@ -558,10 +560,10 @@
       <c r="E3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
     </row>
